--- a/AED/CleanedFiles/Master Data Set - Option A.xlsx
+++ b/AED/CleanedFiles/Master Data Set - Option A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tahaadamaly/Library/Mobile Documents/com~apple~CloudDocs/University/Courses/Year 3 - 21:22/EFIM30031 Applied Economics Dissertation/Course Content/Data - Extension Option A/Cleaned Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tahaadamaly/Documents/GitHub/tahaadamaly.github.io/AED/CleanedFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EB4C00-5199-304A-9479-995DB0E400A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D240F12-8D8B-6542-A9BC-757F73DA9C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{6A77C3D6-81CC-BD48-AFDB-50AC565B8F87}"/>
   </bookViews>
@@ -1585,7 +1585,7 @@
   <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
